--- a/outputs-HGR-r202/test-g__CAG-345_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__CAG-345_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Row</t>
   </si>
@@ -67,7 +67,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -77,14 +77,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -103,18 +107,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -125,7 +129,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -136,7 +140,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -147,7 +151,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -158,7 +162,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -169,7 +173,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -180,7 +184,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -191,7 +195,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">

--- a/outputs-HGR-r202/test-g__CAG-345_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__CAG-345_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="11">
   <si>
     <t>Row</t>
   </si>
@@ -67,7 +67,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -79,16 +79,52 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -107,99 +143,99 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1.6934348384994156</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.85624048232744698</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>1.4632562427414726</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1.7487631742460241</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>1.6934348384994156</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.85624048232744698</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1.6848216597237897</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>1.3142429882819044</v>
       </c>
       <c r="C9">
         <v>1</v>

--- a/outputs-HGR-r202/test-g__CAG-345_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__CAG-345_split_pruned.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Row</t>
   </si>
   <si>
     <t>even_MAG-GUT40025.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT40033.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT42613.fa</t>
@@ -32,9 +29,6 @@
   </si>
   <si>
     <t>even_MAG-GUT65576.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT65588.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT66330.fa</t>
@@ -67,7 +61,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -77,54 +71,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -134,7 +88,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -143,18 +97,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>9</v>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>10</v>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -165,79 +119,57 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.85624048232744698</v>
+        <v>1.4632562427414726</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.4632562427414726</v>
+        <v>1.7487631742460241</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.7487631742460241</v>
+        <v>1.6934348384994156</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.6934348384994156</v>
+        <v>1.6848216597237897</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.85624048232744698</v>
+        <v>1.3142429882819044</v>
       </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1.6848216597237897</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1.3142429882819044</v>
-      </c>
-      <c r="C9">
         <v>1</v>
       </c>
     </row>
